--- a/SBOL3_simple_library4.xlsx
+++ b/SBOL3_simple_library4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2820" windowWidth="35360" windowHeight="16020" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2820" windowWidth="35360" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Parts" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8096" uniqueCount="7718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8097" uniqueCount="7719">
   <si>
     <t>Circular Drop down</t>
   </si>
@@ -23162,9 +23162,6 @@
     <t>LmrA</t>
   </si>
   <si>
-    <t>From SymBioHub: https://synbiohub.programmingbiology.org/public/Eco1C1G1T1/LmrA/1</t>
-  </si>
-  <si>
     <t>Multicolumn</t>
   </si>
   <si>
@@ -23259,6 +23256,12 @@
   </si>
   <si>
     <t>http://sbolstandard.org/testfiles</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://synbiohub.programmingbiology.org/public/Eco1C1G1T1</t>
   </si>
 </sst>
 </file>
@@ -23752,7 +23755,7 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -23951,6 +23954,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -24393,8 +24397,8 @@
   </sheetPr>
   <dimension ref="A1:AA987"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24701,10 +24705,10 @@
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="61" t="s">
+      <c r="G20" s="63" t="s">
         <v>7618</v>
       </c>
       <c r="H20" s="61"/>
@@ -25547,13 +25551,15 @@
       <c r="B45" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>7689</v>
-      </c>
+      <c r="C45" s="61"/>
       <c r="D45" s="61"/>
       <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="F45" s="61" t="s">
+        <v>7717</v>
+      </c>
+      <c r="G45" s="72" t="s">
+        <v>7718</v>
+      </c>
       <c r="H45" s="61"/>
       <c r="I45" s="61"/>
       <c r="J45" s="61" t="b">
@@ -26519,10 +26525,13 @@
   <mergeCells count="1">
     <mergeCell ref="A11:F11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G45" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -26957,31 +26966,31 @@
         <v>7523</v>
       </c>
       <c r="H23" s="61" t="s">
+        <v>7695</v>
+      </c>
+      <c r="I23" s="61" t="s">
         <v>7696</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="J23" s="61" t="s">
         <v>7697</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="K23" s="61" t="s">
         <v>7698</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="L23" s="61" t="s">
         <v>7699</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="M23" s="61" t="s">
         <v>7700</v>
       </c>
-      <c r="M23" s="61" t="s">
+      <c r="N23" s="61" t="s">
         <v>7701</v>
       </c>
-      <c r="N23" s="61" t="s">
+      <c r="O23" s="61" t="s">
         <v>7702</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="P23" s="61" t="s">
         <v>7703</v>
-      </c>
-      <c r="P23" s="61" t="s">
-        <v>7704</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -27001,7 +27010,7 @@
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61" t="s">
-        <v>7705</v>
+        <v>7704</v>
       </c>
       <c r="I24" s="61"/>
       <c r="J24" s="61"/>
@@ -27027,10 +27036,10 @@
       </c>
       <c r="G25" s="61"/>
       <c r="H25" s="61" t="s">
+        <v>7705</v>
+      </c>
+      <c r="I25" s="61" t="s">
         <v>7706</v>
-      </c>
-      <c r="I25" s="61" t="s">
-        <v>7707</v>
       </c>
       <c r="J25" s="61" t="s">
         <v>7596</v>
@@ -27061,7 +27070,7 @@
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
       <c r="H26" s="61" t="s">
-        <v>7708</v>
+        <v>7707</v>
       </c>
       <c r="I26" s="61"/>
       <c r="J26" s="61"/>
@@ -27085,7 +27094,7 @@
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
       <c r="H27" s="61" t="s">
-        <v>7709</v>
+        <v>7708</v>
       </c>
       <c r="I27" s="61"/>
       <c r="J27" s="61"/>
@@ -27143,7 +27152,7 @@
         <v>7563</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>7710</v>
+        <v>7709</v>
       </c>
       <c r="K29" s="61"/>
       <c r="L29" s="61"/>
@@ -28218,7 +28227,7 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -28261,10 +28270,10 @@
     </row>
     <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7714</v>
+        <v>7713</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>7717</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28307,7 +28316,7 @@
         <v>117</v>
       </c>
       <c r="L10" s="66" t="s">
-        <v>7715</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -28527,7 +28536,7 @@
         <v>7466</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>7690</v>
+        <v>7689</v>
       </c>
       <c r="E1" s="62" t="s">
         <v>7467</v>
@@ -28577,7 +28586,7 @@
         <v>7485</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>7711</v>
+        <v>7710</v>
       </c>
       <c r="D2" s="61"/>
       <c r="E2" s="61" t="s">
@@ -28618,10 +28627,10 @@
         <v>7502</v>
       </c>
       <c r="C3" s="61" t="s">
+        <v>7692</v>
+      </c>
+      <c r="D3" s="61" t="s">
         <v>7693</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>7694</v>
       </c>
       <c r="E3" s="61" t="s">
         <v>7486</v>
@@ -28661,10 +28670,10 @@
         <v>7503</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>7693</v>
+        <v>7692</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>7695</v>
+        <v>7694</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>7486</v>
@@ -29061,7 +29070,7 @@
         <v>7488</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>7691</v>
+        <v>7690</v>
       </c>
       <c r="I13" s="61" t="b">
         <v>1</v>
@@ -29136,7 +29145,7 @@
         <v>7509</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>7712</v>
+        <v>7711</v>
       </c>
       <c r="D15" s="61"/>
       <c r="E15" s="61" t="s">
@@ -29309,7 +29318,7 @@
         <v>7485</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>7711</v>
+        <v>7710</v>
       </c>
       <c r="D19" s="61"/>
       <c r="E19" s="61" t="s">
@@ -29353,7 +29362,7 @@
         <v>7526</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>7713</v>
+        <v>7712</v>
       </c>
       <c r="E20" s="61" t="s">
         <v>7482</v>
@@ -29597,13 +29606,13 @@
         <v>119</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>7696</v>
+        <v>7695</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E26" s="61" t="s">
         <v>7482</v>
@@ -29640,13 +29649,13 @@
         <v>119</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>7697</v>
+        <v>7696</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E27" s="61" t="s">
         <v>7482</v>
@@ -29683,13 +29692,13 @@
         <v>119</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>7698</v>
+        <v>7697</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E28" s="61" t="s">
         <v>7482</v>
@@ -29726,13 +29735,13 @@
         <v>119</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>7699</v>
+        <v>7698</v>
       </c>
       <c r="C29" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E29" s="61" t="s">
         <v>7482</v>
@@ -29769,13 +29778,13 @@
         <v>119</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>7700</v>
+        <v>7699</v>
       </c>
       <c r="C30" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E30" s="61" t="s">
         <v>7482</v>
@@ -29812,13 +29821,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>7701</v>
+        <v>7700</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E31" s="61" t="s">
         <v>7482</v>
@@ -29855,13 +29864,13 @@
         <v>119</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>7702</v>
+        <v>7701</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E32" s="61" t="s">
         <v>7482</v>
@@ -29898,13 +29907,13 @@
         <v>119</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>7703</v>
+        <v>7702</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E33" s="61" t="s">
         <v>7482</v>
@@ -29941,13 +29950,13 @@
         <v>119</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>7704</v>
+        <v>7703</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>7526</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>7692</v>
+        <v>7691</v>
       </c>
       <c r="E34" s="61" t="s">
         <v>7482</v>
@@ -30103,10 +30112,10 @@
         <v>7527</v>
       </c>
       <c r="B38" s="65" t="s">
+        <v>7714</v>
+      </c>
+      <c r="C38" s="65" t="s">
         <v>7715</v>
-      </c>
-      <c r="C38" s="65" t="s">
-        <v>7716</v>
       </c>
       <c r="D38" s="65"/>
       <c r="E38" s="61" t="s">
